--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link1_request800.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link1_request800.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1993,7 +1993,7 @@
         <v>0.4232</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="143">
@@ -2004,7 +2004,7 @@
         <v>1.564</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="144">
@@ -2015,7 +2015,7 @@
         <v>0.588</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="145">
@@ -2026,7 +2026,7 @@
         <v>0.716</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="146">
@@ -2037,7 +2037,7 @@
         <v>0.4136</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="147">
@@ -2048,7 +2048,7 @@
         <v>1.9056</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="148">
@@ -2059,7 +2059,7 @@
         <v>0.208</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="149">
@@ -2070,7 +2070,7 @@
         <v>4.428</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="150">
@@ -2081,7 +2081,7 @@
         <v>0.4048</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="151">
@@ -2092,7 +2092,7 @@
         <v>3.112</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="152">
@@ -3181,7 +3181,7 @@
         <v>0.352</v>
       </c>
       <c r="C250" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="251">
@@ -3192,7 +3192,7 @@
         <v>1.052</v>
       </c>
       <c r="C251" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="252">
@@ -3203,7 +3203,7 @@
         <v>2.2</v>
       </c>
       <c r="C252" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="253">
@@ -3214,7 +3214,7 @@
         <v>0.748</v>
       </c>
       <c r="C253" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="254">
@@ -3225,7 +3225,7 @@
         <v>0.384</v>
       </c>
       <c r="C254" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="255">
@@ -3236,7 +3236,7 @@
         <v>0.764</v>
       </c>
       <c r="C255" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="256">
@@ -3247,7 +3247,7 @@
         <v>3.184</v>
       </c>
       <c r="C256" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="257">
@@ -4270,7 +4270,7 @@
         <v>1.496</v>
       </c>
       <c r="C349" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="350">
@@ -4281,7 +4281,7 @@
         <v>0.104</v>
       </c>
       <c r="C350" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="351">
@@ -4292,7 +4292,7 @@
         <v>1.72</v>
       </c>
       <c r="C351" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="352">
@@ -4303,7 +4303,7 @@
         <v>3.58</v>
       </c>
       <c r="C352" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="353">
@@ -4314,7 +4314,7 @@
         <v>1.048</v>
       </c>
       <c r="C353" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="354">
@@ -4325,7 +4325,7 @@
         <v>1.2</v>
       </c>
       <c r="C354" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="355">
@@ -4831,7 +4831,7 @@
         <v>16.232</v>
       </c>
       <c r="C400" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="401">
@@ -6030,7 +6030,7 @@
         <v>2.828</v>
       </c>
       <c r="C509" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="510">
@@ -6041,7 +6041,7 @@
         <v>4.928</v>
       </c>
       <c r="C510" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="511">
@@ -6052,7 +6052,7 @@
         <v>3.3104</v>
       </c>
       <c r="C511" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="512">
@@ -6470,7 +6470,7 @@
         <v>17.4176</v>
       </c>
       <c r="C549" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="550">
@@ -7944,7 +7944,7 @@
         <v>2.828</v>
       </c>
       <c r="C683" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="684">
@@ -7955,7 +7955,7 @@
         <v>4.928</v>
       </c>
       <c r="C684" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="685">
@@ -7966,7 +7966,7 @@
         <v>3.3104</v>
       </c>
       <c r="C685" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="686">
@@ -8340,7 +8340,7 @@
         <v>17.4176</v>
       </c>
       <c r="C719" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="720">
@@ -9814,7 +9814,7 @@
         <v>2.828</v>
       </c>
       <c r="C853" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="854">
@@ -9825,7 +9825,7 @@
         <v>4.928</v>
       </c>
       <c r="C854" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="855">
@@ -9836,7 +9836,7 @@
         <v>3.3104</v>
       </c>
       <c r="C855" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="856">
@@ -10210,7 +10210,7 @@
         <v>17.4176</v>
       </c>
       <c r="C889" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="890">
@@ -11684,7 +11684,7 @@
         <v>2.828</v>
       </c>
       <c r="C1023" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1024">
@@ -11695,7 +11695,7 @@
         <v>4.928</v>
       </c>
       <c r="C1024" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1025">
@@ -11706,7 +11706,7 @@
         <v>3.3104</v>
       </c>
       <c r="C1025" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1026">
@@ -12080,7 +12080,7 @@
         <v>17.4176</v>
       </c>
       <c r="C1059" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1060">
@@ -13554,7 +13554,7 @@
         <v>2.828</v>
       </c>
       <c r="C1193" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1194">
@@ -13565,7 +13565,7 @@
         <v>4.928</v>
       </c>
       <c r="C1194" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1195">
@@ -13576,7 +13576,7 @@
         <v>3.3104</v>
       </c>
       <c r="C1195" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1196">
@@ -13950,7 +13950,7 @@
         <v>17.4176</v>
       </c>
       <c r="C1229" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1230">
@@ -15424,7 +15424,7 @@
         <v>2.828</v>
       </c>
       <c r="C1363" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1364">
@@ -15435,7 +15435,7 @@
         <v>4.928</v>
       </c>
       <c r="C1364" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1365">
@@ -15446,7 +15446,7 @@
         <v>3.3104</v>
       </c>
       <c r="C1365" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1366">
@@ -15820,7 +15820,7 @@
         <v>17.4176</v>
       </c>
       <c r="C1399" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1400">
@@ -17294,7 +17294,7 @@
         <v>2.828</v>
       </c>
       <c r="C1533" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1534">
@@ -17305,7 +17305,7 @@
         <v>4.928</v>
       </c>
       <c r="C1534" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1535">
@@ -17316,7 +17316,7 @@
         <v>3.3104</v>
       </c>
       <c r="C1535" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1536">
@@ -17690,7 +17690,7 @@
         <v>17.4176</v>
       </c>
       <c r="C1569" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="1570">
@@ -19164,7 +19164,7 @@
         <v>2.828</v>
       </c>
       <c r="C1703" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1704">
@@ -19175,7 +19175,7 @@
         <v>4.928</v>
       </c>
       <c r="C1704" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1705">
@@ -19186,7 +19186,7 @@
         <v>3.3104</v>
       </c>
       <c r="C1705" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1706">
@@ -19560,7 +19560,7 @@
         <v>17.4176</v>
       </c>
       <c r="C1739" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="1740">
@@ -21034,7 +21034,7 @@
         <v>2.828</v>
       </c>
       <c r="C1873" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1874">
@@ -21045,7 +21045,7 @@
         <v>4.928</v>
       </c>
       <c r="C1874" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1875">
@@ -21056,7 +21056,7 @@
         <v>3.3104</v>
       </c>
       <c r="C1875" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1876">
@@ -21430,7 +21430,7 @@
         <v>17.4176</v>
       </c>
       <c r="C1909" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="1910">
@@ -21757,7 +21757,7 @@
         <v>1937</v>
       </c>
       <c r="B1939" t="n">
-        <v>42.9088</v>
+        <v>26.9088</v>
       </c>
       <c r="C1939" t="n">
         <v>12187501</v>
